--- a/specific_variables/surface-winds-profile.xlsx
+++ b/specific_variables/surface-winds-profile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/temp_out/specific_variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FB1D2-EC60-FB46-B883-35690ED35B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70C409-1F0E-FD4B-B2E5-4F30AF9092CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="-1440" windowWidth="25600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Variable</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>altitude</t>
   </si>
   <si>
     <t>units</t>
@@ -128,6 +125,12 @@
   </si>
   <si>
     <t>Height above snow surface</t>
+  </si>
+  <si>
+    <t>height_above_snow_surface</t>
+  </si>
+  <si>
+    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -558,13 +561,13 @@
   </sheetPr>
   <dimension ref="A1:E997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="23" width="8.6640625" customWidth="1"/>
@@ -583,89 +586,89 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+      <c r="C6" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>34</v>
+      <c r="C7" s="5">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
-        <v>-1E+20</v>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.5</v>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7">
-        <v>15</v>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -675,52 +678,52 @@
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="10">
         <v>-1E+20</v>
@@ -728,34 +731,34 @@
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="11">
-        <v>500</v>
+        <v>15</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -763,52 +766,52 @@
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="10">
         <v>-1E+20</v>
@@ -816,40 +819,40 @@
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="11">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="11">
-        <v>360</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="12"/>
@@ -859,10 +862,10 @@
     <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -870,10 +873,10 @@
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -881,7 +884,7 @@
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -894,27 +897,29 @@
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="12" t="s">
         <v>29</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="6"/>
@@ -922,12 +927,6 @@
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
-      <c r="B45" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
     </row>

--- a/specific_variables/surface-winds-profile.xlsx
+++ b/specific_variables/surface-winds-profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70C409-1F0E-FD4B-B2E5-4F30AF9092CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B681A062-F6F4-B34E-BBBF-97C438837BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="-1440" windowWidth="25600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Variable</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>valid_min</t>
-  </si>
-  <si>
-    <t>valid_max</t>
   </si>
   <si>
     <t>coordinates</t>
@@ -128,9 +122,6 @@
   </si>
   <si>
     <t>height_above_snow_surface</t>
-  </si>
-  <si>
-    <t>&lt;derived&gt;</t>
   </si>
 </sst>
 </file>
@@ -189,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -207,7 +198,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -216,9 +206,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -561,8 +548,8 @@
   </sheetPr>
   <dimension ref="A1:E997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="A29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -586,7 +573,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -618,8 +605,8 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>33</v>
+      <c r="C6" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -639,83 +626,83 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -723,212 +710,176 @@
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="10">
-        <v>-1E+20</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>35</v>
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="4"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>23</v>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C28" s="9">
+        <v>-1E+20</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="10">
-        <v>-1E+20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C36" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>7</v>
-      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="15">
-        <v>1</v>
-      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
-      <c r="B44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/surface-winds-profile.xlsx
+++ b/specific_variables/surface-winds-profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B681A062-F6F4-B34E-BBBF-97C438837BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917EACF0-5A0C-9D40-AB0C-2CF8CEF3C4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-1440" windowWidth="25600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="25600" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -109,19 +109,19 @@
     <t>flag_meanings</t>
   </si>
   <si>
-    <t>0, 1, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_data,   
-good_data, 
-suspect_data_instrument_error_code 
-  </t>
-  </si>
-  <si>
     <t>Height above snow surface</t>
   </si>
   <si>
     <t>height_above_snow_surface</t>
+  </si>
+  <si>
+    <t>0b,1b, 2b, 3b</t>
+  </si>
+  <si>
+    <t>no_data
+good_data 
+bad_data_temperature_outside_sensor_operational_range
+bad_data_unspecified_instrument_error</t>
   </si>
 </sst>
 </file>
@@ -219,15 +219,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:E997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="A29:C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -573,7 +571,7 @@
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -605,8 +603,8 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>31</v>
+      <c r="C6" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -834,20 +832,20 @@
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>29</v>
+      <c r="C37" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>30</v>
+      <c r="C38" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -878,8 +876,8 @@
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/specific_variables/surface-winds-profile.xlsx
+++ b/specific_variables/surface-winds-profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/specific_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917EACF0-5A0C-9D40-AB0C-2CF8CEF3C4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599ED402-EB29-4C49-A311-653C6505D690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="25600" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="25600" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables-specific" sheetId="2" r:id="rId1"/>
@@ -115,13 +115,10 @@
     <t>height_above_snow_surface</t>
   </si>
   <si>
-    <t>0b,1b, 2b, 3b</t>
-  </si>
-  <si>
-    <t>no_data
-good_data 
-bad_data_temperature_outside_sensor_operational_range
-bad_data_unspecified_instrument_error</t>
+    <t>0, 1, 2, 3</t>
+  </si>
+  <si>
+    <t>no_data good_data bad_data_temperature_outside_sensor_operational_range bad_data_unspecified_instrument_error</t>
   </si>
 </sst>
 </file>
